--- a/biology/Médecine/Françoise_Clavel-Chapelon/Françoise_Clavel-Chapelon.xlsx
+++ b/biology/Médecine/Françoise_Clavel-Chapelon/Françoise_Clavel-Chapelon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Clavel-Chapelon</t>
+          <t>Françoise_Clavel-Chapelon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Françoise Clavel-Chapelon est une chercheuse en santé publique depuis 1964 à l'INSERM[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Françoise Clavel-Chapelon est une chercheuse en santé publique depuis 1964 à l'INSERM,.
 Ses travaux de recherche ont principalement porté sur le rôle des facteurs nutritionnels et hormonaux en relation avec le risque de différentes maladies, initialement le cancer du sein, puis les cancers de la thyroïde, du côlon-rectum, de la peau, ou encore de l’endomètre. En parallèle, le champ de recherche s’est élargi au diabète, aux maladies cardio-vasculaires, aux maladies neuro-dégénératives, à l’asthme, la dépression etc.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Clavel-Chapelon</t>
+          <t>Françoise_Clavel-Chapelon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Françoise Clavel-Chapelon est directrice de recherche française en épidémiologie à INSERM.
-Depuis 1990 et jusqu'en 2016, elle est directrice de la cohorte E3N[3], la plus grande cohorte française sur la santé des femmes.
-Elle a dirigé 11 thèses[4].
+Depuis 1990 et jusqu'en 2016, elle est directrice de la cohorte E3N, la plus grande cohorte française sur la santé des femmes.
+Elle a dirigé 11 thèses.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Clavel-Chapelon</t>
+          <t>Françoise_Clavel-Chapelon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grand prix de la recherche [5],[6]
-Légion d'honneur, grade chevalier [1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand prix de la recherche ,
+Légion d'honneur, grade chevalier 
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fran%C3%A7oise_Clavel-Chapelon</t>
+          <t>Françoise_Clavel-Chapelon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Note et référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ « Institut national de la santé et de la recherche médicale ⋅ Inserm, La science pour la santé », sur Inserm (consulté le 31 mars 2022)
